--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/20/seed5/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.35</v>
+        <v>16.277</v>
       </c>
     </row>
     <row r="3">
@@ -488,10 +488,10 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.103999999999999</v>
+        <v>-8.222</v>
       </c>
       <c r="E3" t="n">
-        <v>16.964</v>
+        <v>16.558</v>
       </c>
     </row>
     <row r="4">
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.476000000000001</v>
+        <v>-7.769</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -593,7 +593,7 @@
         <v>-7.01</v>
       </c>
       <c r="E9" t="n">
-        <v>16.862</v>
+        <v>17.185</v>
       </c>
     </row>
     <row r="10">
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.812</v>
+        <v>-21.669</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.508</v>
+        <v>-21.652</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.408000000000001</v>
+        <v>-7.746</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.962</v>
+        <v>-21.904</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.106</v>
+        <v>16.199</v>
       </c>
     </row>
     <row r="16">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.084</v>
+        <v>16.239</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.364</v>
+        <v>16.312</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.144</v>
+        <v>17.08</v>
       </c>
     </row>
     <row r="26">
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.986</v>
+        <v>-7.667999999999999</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.142</v>
+        <v>-21.747</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -899,12 +899,12 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.318</v>
+        <v>16.733</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.814</v>
+        <v>-21.889</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -916,7 +916,7 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.852</v>
+        <v>16.904</v>
       </c>
     </row>
     <row r="29">
@@ -950,12 +950,12 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>16.042</v>
+        <v>16.354</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.638</v>
+        <v>-21.572</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.203999999999999</v>
+        <v>-7.931999999999999</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.812</v>
+        <v>-21.742</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.68</v>
+        <v>16.901</v>
       </c>
     </row>
     <row r="33">
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.601999999999999</v>
+        <v>-7.858</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.78</v>
+        <v>-20.5</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.698</v>
+        <v>-7.778</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.42</v>
+        <v>-19.741</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.744</v>
+        <v>-7.186</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.378</v>
+        <v>-7.858</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.31</v>
+        <v>16.503</v>
       </c>
     </row>
     <row r="45">
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.69</v>
+        <v>-7.390000000000001</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.852</v>
+        <v>-21.812</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.746</v>
+        <v>16.572</v>
       </c>
     </row>
     <row r="48">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.590000000000001</v>
+        <v>-7.87</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.68</v>
+        <v>-21.703</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.08</v>
+        <v>-22.026</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.046</v>
+        <v>-22.047</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.23</v>
+        <v>-8.289999999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.352</v>
+        <v>16.597</v>
       </c>
     </row>
     <row r="59">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.514</v>
+        <v>16.311</v>
       </c>
     </row>
     <row r="63">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.586</v>
+        <v>-21.6</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.62</v>
+        <v>-21.68</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.052</v>
+        <v>-21.445</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.836</v>
+        <v>-19.921</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1749,7 +1749,7 @@
         <v>-6.2</v>
       </c>
       <c r="E77" t="n">
-        <v>16.814</v>
+        <v>16.751</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.264</v>
+        <v>16.391</v>
       </c>
     </row>
     <row r="79">
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.856</v>
+        <v>-7.27</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.018</v>
+        <v>-21.757</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.289999999999999</v>
+        <v>-8.289</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.594</v>
+        <v>16.821</v>
       </c>
     </row>
     <row r="85">
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.268</v>
+        <v>-22.035</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.128</v>
+        <v>17.33900000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.478</v>
+        <v>-21.613</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.278</v>
+        <v>17.243</v>
       </c>
     </row>
     <row r="92">
@@ -2004,12 +2004,12 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>16.534</v>
+        <v>16.891</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.734</v>
+        <v>-21.288</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.508</v>
+        <v>16.677</v>
       </c>
     </row>
     <row r="97">
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.094</v>
+        <v>-20.326</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.356</v>
+        <v>-8.425000000000001</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,10 +2171,10 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.068000000000001</v>
+        <v>-7.507</v>
       </c>
       <c r="E102" t="n">
-        <v>16.39</v>
+        <v>16.59500000000001</v>
       </c>
     </row>
   </sheetData>
